--- a/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
+++ b/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_cal_data\cal_9_24_premo_rotated_dipole\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76A35D8-E963-4B59-BFB7-374E27787A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C911C-7AD8-4A6E-8B01-92F6BC9EE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="684" yWindow="5232" windowWidth="27684" windowHeight="6264" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="1848" yWindow="17448" windowWidth="16176" windowHeight="8004" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Error stats" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +608,7 @@
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
+      <c r="U1" s="19"/>
       <c r="V1" s="16"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
@@ -616,65 +616,65 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
-      <c r="AC1" s="18"/>
+      <c r="AC1" s="19"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="18"/>
       <c r="N2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="19" t="s">
+      <c r="P2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="19"/>
+      <c r="Q2" s="18"/>
       <c r="R2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="17"/>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="19"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="W2" s="17"/>
-      <c r="X2" s="19" t="s">
+      <c r="X2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="19"/>
+      <c r="Y2" s="18"/>
       <c r="Z2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="AA2" s="17"/>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="19"/>
+      <c r="AC2" s="18"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1267,18 +1267,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -1288,6 +1276,18 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
+++ b/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_papers\calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_cal_data\cal_9_24_premo_rotated_dipole\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C911C-7AD8-4A6E-8B01-92F6BC9EE9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F4D8B-4836-4B21-AE2E-714EF43B7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="17448" windowWidth="16176" windowHeight="8004" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24090" windowHeight="11775" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Error stats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="28">
   <si>
     <t>Calibration</t>
   </si>
@@ -83,6 +83,9 @@
     <t>XYZ_all_concentric_hr_cal</t>
   </si>
   <si>
+    <t>trans_only_hr_cal</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -95,7 +98,7 @@
     <t>sf nocorrect</t>
   </si>
   <si>
-    <t>sfnp noZout</t>
+    <t>trans only noc</t>
   </si>
   <si>
     <t>output/XYZ_nosofix_hr_cal</t>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>output\XYZ_all_hr_cal</t>
+  </si>
+  <si>
+    <t>output/trans_only_hr_cal</t>
   </si>
 </sst>
 </file>
@@ -234,10 +240,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,54 +567,54 @@
       <selection activeCell="R1" sqref="R1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
-    <col min="10" max="10" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="8.88671875" style="4"/>
-    <col min="18" max="18" width="8.88671875" style="4"/>
-    <col min="22" max="22" width="8.88671875" style="4"/>
-    <col min="25" max="25" width="8.88671875" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="4" customWidth="1"/>
-    <col min="30" max="30" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="4"/>
+    <col min="6" max="6" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="8.85546875" style="4"/>
+    <col min="18" max="18" width="8.85546875" style="4"/>
+    <col min="22" max="22" width="8.85546875" style="4"/>
+    <col min="25" max="25" width="8.85546875" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="19"/>
+      <c r="U1" s="18"/>
       <c r="V1" s="16"/>
       <c r="W1" s="17"/>
       <c r="X1" s="17"/>
@@ -616,67 +622,67 @@
       <c r="Z1" s="16"/>
       <c r="AA1" s="17"/>
       <c r="AB1" s="17"/>
-      <c r="AC1" s="19"/>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC1" s="18"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="19"/>
       <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="17"/>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="19"/>
       <c r="R2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="S2" s="17"/>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="19"/>
       <c r="V2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="W2" s="17"/>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="18"/>
+      <c r="Y2" s="19"/>
       <c r="Z2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="AA2" s="17"/>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="18"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AC2" s="19"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,69 +771,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="7">
-        <v>0.2019826251213456</v>
+        <v>0.17789727827386054</v>
       </c>
       <c r="C4" s="8">
-        <v>0.52530516833145802</v>
+        <v>0.61461270588568684</v>
       </c>
       <c r="D4" s="8">
-        <v>0.21850341771098758</v>
+        <v>0.20999540722187857</v>
       </c>
       <c r="E4" s="8">
-        <v>0.57728246882325973</v>
+        <v>0.52905714028872786</v>
       </c>
       <c r="F4" s="7">
-        <v>0.33530991217960948</v>
+        <v>0.27147517449591774</v>
       </c>
       <c r="G4" s="8">
-        <v>0.93119259717385872</v>
+        <v>0.74730970732864832</v>
       </c>
       <c r="H4" s="8">
-        <v>0.21850341771098758</v>
+        <v>0.20999540722187857</v>
       </c>
       <c r="I4" s="8">
-        <v>0.57728246882325973</v>
+        <v>0.52905714028872786</v>
       </c>
       <c r="J4" s="7">
-        <v>14.402067724706541</v>
+        <v>14.416661696809731</v>
       </c>
       <c r="K4" s="8">
-        <v>282.32226024422653</v>
+        <v>282.02243563285305</v>
       </c>
       <c r="L4" s="8">
-        <v>7.2544932878223696</v>
+        <v>7.2273875425074117</v>
       </c>
       <c r="M4" s="8">
-        <v>144.90010659138969</v>
+        <v>144.99564823488595</v>
       </c>
       <c r="N4" s="7">
-        <v>14.368495479442474</v>
+        <v>14.271517668686256</v>
       </c>
       <c r="O4" s="8">
-        <v>283.40647133871477</v>
+        <v>283.4680085225985</v>
       </c>
       <c r="P4" s="8">
-        <v>7.2544932878223696</v>
+        <v>7.2273875425074117</v>
       </c>
       <c r="Q4" s="8">
-        <v>144.90010659138969</v>
+        <v>144.99564823488595</v>
       </c>
       <c r="R4" s="7">
-        <v>1.7486099233783587</v>
+        <v>0.25327072596628042</v>
       </c>
       <c r="S4" s="8">
-        <v>6.5400372085605296</v>
+        <v>0.57285531920565202</v>
       </c>
       <c r="T4" s="8">
-        <v>0.78960392133109936</v>
+        <v>0.20074165402440952</v>
       </c>
       <c r="U4" s="8">
-        <v>2.7672852366141556</v>
+        <v>0.38621836606251736</v>
       </c>
       <c r="V4" s="7"/>
       <c r="W4" s="8"/>
@@ -838,69 +844,69 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="7">
-        <v>0.4355985339282657</v>
+        <v>0.42290273526674788</v>
       </c>
       <c r="C5" s="8">
-        <v>1.1444890228024938</v>
+        <v>0.90324754175243749</v>
       </c>
       <c r="D5" s="8">
-        <v>0.40737714192010621</v>
+        <v>0.38702259344750939</v>
       </c>
       <c r="E5" s="8">
-        <v>0.93629028985382345</v>
+        <v>0.86863364675426313</v>
       </c>
       <c r="F5" s="7">
-        <v>0.59054182686182832</v>
+        <v>0.50037234458763946</v>
       </c>
       <c r="G5" s="8">
-        <v>1.3482521551455133</v>
+        <v>1.1020675756965639</v>
       </c>
       <c r="H5" s="8">
-        <v>0.40737714192010621</v>
+        <v>0.38702259344750939</v>
       </c>
       <c r="I5" s="8">
-        <v>0.93629028985382345</v>
+        <v>0.86863364675426313</v>
       </c>
       <c r="J5" s="7">
-        <v>14.42565509673336</v>
+        <v>14.425839437436602</v>
       </c>
       <c r="K5" s="8">
-        <v>286.36621166534212</v>
+        <v>286.07028333040728</v>
       </c>
       <c r="L5" s="8">
-        <v>7.9490715327117574</v>
+        <v>7.9486026447623299</v>
       </c>
       <c r="M5" s="8">
-        <v>144.69016060606322</v>
+        <v>144.69170423656331</v>
       </c>
       <c r="N5" s="7">
-        <v>14.447199282437087</v>
+        <v>14.451512371099913</v>
       </c>
       <c r="O5" s="8">
-        <v>283.45823752715114</v>
+        <v>283.39170420874621</v>
       </c>
       <c r="P5" s="8">
-        <v>7.9490715327117574</v>
+        <v>7.9486026447623299</v>
       </c>
       <c r="Q5" s="8">
-        <v>144.69016060606322</v>
+        <v>144.69170423656331</v>
       </c>
       <c r="R5" s="7">
-        <v>0.74274714852533885</v>
+        <v>0.53815219677763115</v>
       </c>
       <c r="S5" s="8">
-        <v>2.6686447777251052</v>
+        <v>0.99928473208655955</v>
       </c>
       <c r="T5" s="8">
-        <v>0.40324183160614707</v>
+        <v>0.35739244599688724</v>
       </c>
       <c r="U5" s="8">
-        <v>1.0640814814091291</v>
+        <v>0.70269316327698628</v>
       </c>
       <c r="V5" s="7"/>
       <c r="W5" s="8"/>
@@ -911,69 +917,69 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="7">
-        <v>28.304957333576017</v>
+        <v>28.325383529852502</v>
       </c>
       <c r="C6" s="8">
-        <v>73.63553983783126</v>
+        <v>73.454045577923338</v>
       </c>
       <c r="D6" s="8">
-        <v>20.272569520908039</v>
+        <v>20.263774989255438</v>
       </c>
       <c r="E6" s="8">
-        <v>56.884775449910173</v>
+        <v>56.839424917636663</v>
       </c>
       <c r="F6" s="7">
-        <v>28.304957333576017</v>
+        <v>28.325383529852502</v>
       </c>
       <c r="G6" s="8">
-        <v>73.63553983783126</v>
+        <v>73.454045577923338</v>
       </c>
       <c r="H6" s="8">
-        <v>20.272569520908039</v>
+        <v>20.263774989255438</v>
       </c>
       <c r="I6" s="8">
-        <v>56.884775449910173</v>
+        <v>56.839424917636663</v>
       </c>
       <c r="J6" s="7">
-        <v>197.5507967047229</v>
+        <v>197.65522312805123</v>
       </c>
       <c r="K6" s="8">
-        <v>536.79475014968341</v>
+        <v>537.31567876127338</v>
       </c>
       <c r="L6" s="8">
-        <v>90.37444826897044</v>
+        <v>90.382233772846462</v>
       </c>
       <c r="M6" s="8">
-        <v>179.97404410748445</v>
+        <v>179.95013512759544</v>
       </c>
       <c r="N6" s="7">
-        <v>197.5507967047229</v>
+        <v>197.65522312805123</v>
       </c>
       <c r="O6" s="8">
-        <v>536.79475014968341</v>
+        <v>537.31567876127338</v>
       </c>
       <c r="P6" s="8">
-        <v>90.37444826897044</v>
+        <v>90.382233772846462</v>
       </c>
       <c r="Q6" s="8">
-        <v>179.97404410748445</v>
+        <v>179.95013512759544</v>
       </c>
       <c r="R6" s="7">
-        <v>191.13814758351663</v>
+        <v>28.080008188075205</v>
       </c>
       <c r="S6" s="8">
-        <v>536.79475014968341</v>
+        <v>69.066140626855869</v>
       </c>
       <c r="T6" s="8">
-        <v>84.463942190915972</v>
+        <v>20.114019538485859</v>
       </c>
       <c r="U6" s="8">
-        <v>179.97404410748445</v>
+        <v>53.488912556240244</v>
       </c>
       <c r="V6" s="7"/>
       <c r="W6" s="8"/>
@@ -984,69 +990,69 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7">
-        <v>50.19761492617166</v>
+        <v>50.238201276585791</v>
       </c>
       <c r="C7" s="8">
-        <v>261.95561301329172</v>
+        <v>261.94378445783059</v>
       </c>
       <c r="D7" s="8">
-        <v>35.147327145490323</v>
+        <v>35.137425843673363</v>
       </c>
       <c r="E7" s="8">
-        <v>156.67671023344451</v>
+        <v>156.7158296411321</v>
       </c>
       <c r="F7" s="7">
-        <v>50.19761492617166</v>
+        <v>50.238201276585791</v>
       </c>
       <c r="G7" s="8">
-        <v>261.95561301329172</v>
+        <v>261.94378445783059</v>
       </c>
       <c r="H7" s="8">
-        <v>35.147327145490323</v>
+        <v>35.137425843673363</v>
       </c>
       <c r="I7" s="8">
-        <v>156.67671023344451</v>
+        <v>156.7158296411321</v>
       </c>
       <c r="J7" s="7">
-        <v>153.37992678523062</v>
+        <v>153.47199000475959</v>
       </c>
       <c r="K7" s="8">
-        <v>574.62955817187014</v>
+        <v>575.01219048616701</v>
       </c>
       <c r="L7" s="8">
-        <v>67.982999957020397</v>
+        <v>67.98967504937049</v>
       </c>
       <c r="M7" s="8">
-        <v>179.90324002611089</v>
+        <v>179.86722798002737</v>
       </c>
       <c r="N7" s="7">
-        <v>153.37992678523062</v>
+        <v>153.47199000475959</v>
       </c>
       <c r="O7" s="8">
-        <v>574.62955817187014</v>
+        <v>575.01219048616701</v>
       </c>
       <c r="P7" s="8">
-        <v>67.982999957020397</v>
+        <v>67.98967504937049</v>
       </c>
       <c r="Q7" s="8">
-        <v>179.90324002611089</v>
+        <v>179.86722798002737</v>
       </c>
       <c r="R7" s="7">
-        <v>148.62285939167293</v>
+        <v>49.670838073136842</v>
       </c>
       <c r="S7" s="8">
-        <v>574.62955817187014</v>
+        <v>192.27327476030777</v>
       </c>
       <c r="T7" s="8">
-        <v>65.403886290052654</v>
+        <v>35.054656482629809</v>
       </c>
       <c r="U7" s="8">
-        <v>179.90324002611089</v>
+        <v>148.14099229108331</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="8"/>
@@ -1057,33 +1063,76 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.77021987371891576</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2.6603888765214627</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.67589176773516291</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.5439673197988348</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.77459565135334385</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2.7177749638241848</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.67589176773516291</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1.5439673197988348</v>
+      </c>
+      <c r="J8" s="7">
+        <v>13.600682736914617</v>
+      </c>
+      <c r="K8" s="8">
+        <v>281.91401011271637</v>
+      </c>
+      <c r="L8" s="8">
+        <v>7.1659953340680493</v>
+      </c>
+      <c r="M8" s="8">
+        <v>144.47310143065357</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13.51660379251588</v>
+      </c>
+      <c r="O8" s="8">
+        <v>282.55399317051325</v>
+      </c>
+      <c r="P8" s="8">
+        <v>7.1659953340680493</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>144.47310143065357</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0.13186916238655375</v>
+      </c>
+      <c r="S8" s="8">
+        <v>0.39669922591158108</v>
+      </c>
+      <c r="T8" s="8">
+        <v>7.7007609755504761E-2</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.19615258837751368</v>
+      </c>
       <c r="V8" s="7"/>
       <c r="W8" s="8"/>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1109,7 +1158,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1135,7 +1184,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1161,7 +1210,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1187,7 +1236,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1213,7 +1262,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1239,7 +1288,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1267,6 +1316,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
@@ -1276,18 +1337,6 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1301,45 +1350,45 @@
       <selection activeCell="N1" sqref="N1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="11" max="11" width="8.88671875" style="4"/>
-    <col min="14" max="14" width="8.88671875" style="4"/>
-    <col min="17" max="17" width="8.88671875" style="4"/>
-    <col min="20" max="20" width="8.88671875" style="4"/>
-    <col min="23" max="23" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="11" max="11" width="8.85546875" style="4"/>
+    <col min="14" max="14" width="8.85546875" style="4"/>
+    <col min="17" max="17" width="8.85546875" style="4"/>
+    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="23" max="23" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O1" s="17"/>
       <c r="P1" s="17"/>
@@ -1353,7 +1402,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,54 +1479,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="14">
-        <v>2.5879479621393531E-7</v>
+        <v>2.590066329459818E-7</v>
       </c>
       <c r="C3" s="15">
-        <v>1.7236985830686532E-6</v>
+        <v>1.6656841446641857E-6</v>
       </c>
       <c r="D3" s="15">
-        <v>3.4344026911413692E-6</v>
+        <v>3.4709830153805077E-6</v>
       </c>
       <c r="E3" s="14">
-        <v>2.5879479621393531E-7</v>
+        <v>2.590066329459818E-7</v>
       </c>
       <c r="F3" s="15">
-        <v>1.7236985830686532E-6</v>
+        <v>1.6656841446641857E-6</v>
       </c>
       <c r="G3" s="15">
-        <v>3.4344026911413692E-6</v>
+        <v>3.4709830153805077E-6</v>
       </c>
       <c r="H3" s="14">
-        <v>1.7968015668758271E-6</v>
+        <v>1.735526887163057E-6</v>
       </c>
       <c r="I3" s="15">
-        <v>1.5298674042207935E-5</v>
+        <v>1.4484609587310799E-5</v>
       </c>
       <c r="J3" s="15">
-        <v>1.867966199238941E-2</v>
+        <v>1.8711875451724376E-2</v>
       </c>
       <c r="K3" s="14">
-        <v>1.7968015668758271E-6</v>
+        <v>1.735526887163057E-6</v>
       </c>
       <c r="L3" s="15">
-        <v>1.5298674042207935E-5</v>
+        <v>1.4484609587310799E-5</v>
       </c>
       <c r="M3" s="15">
-        <v>1.867966199238941E-2</v>
+        <v>1.8711875451724376E-2</v>
       </c>
       <c r="N3" s="14">
-        <v>8.2077052002814123E-7</v>
+        <v>3.2709866412238952E-7</v>
       </c>
       <c r="O3" s="15">
-        <v>7.272536237477632E-6</v>
+        <v>1.7054843955858453E-6</v>
       </c>
       <c r="P3" s="15">
-        <v>1.2507832566178857E-5</v>
+        <v>2.1353588105805418E-6</v>
       </c>
       <c r="Q3" s="14"/>
       <c r="R3" s="15"/>
@@ -1489,54 +1538,54 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="14">
-        <v>4.8576481599129126E-7</v>
+        <v>5.1073824295078025E-7</v>
       </c>
       <c r="C4" s="15">
-        <v>3.8546338695274307E-6</v>
+        <v>3.7822378109762738E-6</v>
       </c>
       <c r="D4" s="15">
-        <v>1.0564170952179529E-5</v>
+        <v>1.0238443056009985E-5</v>
       </c>
       <c r="E4" s="14">
-        <v>4.8576481599129126E-7</v>
+        <v>5.1073824295078025E-7</v>
       </c>
       <c r="F4" s="15">
-        <v>3.8546338695274307E-6</v>
+        <v>3.7822378109762738E-6</v>
       </c>
       <c r="G4" s="15">
-        <v>1.0564170952179529E-5</v>
+        <v>1.0238443056009985E-5</v>
       </c>
       <c r="H4" s="14">
-        <v>8.1630975990895461E-7</v>
+        <v>8.1754253385372231E-7</v>
       </c>
       <c r="I4" s="15">
-        <v>6.0804812929908142E-6</v>
+        <v>6.0890727413906567E-6</v>
       </c>
       <c r="J4" s="15">
-        <v>1.9112131178645922E-2</v>
+        <v>1.9104287874080948E-2</v>
       </c>
       <c r="K4" s="14">
-        <v>8.1630975990895461E-7</v>
+        <v>8.1754253385372231E-7</v>
       </c>
       <c r="L4" s="15">
-        <v>6.0804812929908142E-6</v>
+        <v>6.0890727413906567E-6</v>
       </c>
       <c r="M4" s="15">
-        <v>1.9112131178645922E-2</v>
+        <v>1.9104287874080948E-2</v>
       </c>
       <c r="N4" s="14">
-        <v>7.0491742646239647E-7</v>
+        <v>4.1110891999973994E-7</v>
       </c>
       <c r="O4" s="15">
-        <v>3.2453716237411843E-6</v>
+        <v>3.5513302502115253E-6</v>
       </c>
       <c r="P4" s="15">
-        <v>1.0564170953076496E-5</v>
+        <v>7.8427211582247019E-6</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="15"/>
@@ -1548,54 +1597,54 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="14">
-        <v>2.319893440594945E-3</v>
+        <v>2.3230072688051068E-3</v>
       </c>
       <c r="C5" s="15">
-        <v>1.7155906536679234E-2</v>
+        <v>1.7169203218254957E-2</v>
       </c>
       <c r="D5" s="15">
-        <v>2.8068775697164379E-2</v>
+        <v>2.8052910813942691E-2</v>
       </c>
       <c r="E5" s="14">
-        <v>2.319893440594945E-3</v>
+        <v>2.3230072688051068E-3</v>
       </c>
       <c r="F5" s="15">
-        <v>1.7155906536679234E-2</v>
+        <v>1.7169203218254957E-2</v>
       </c>
       <c r="G5" s="15">
-        <v>2.8068775697164379E-2</v>
+        <v>2.8052910813942691E-2</v>
       </c>
       <c r="H5" s="14">
-        <v>8.0699945232732672E-3</v>
+        <v>8.0745811880826076E-3</v>
       </c>
       <c r="I5" s="15">
-        <v>3.3395643286396007E-2</v>
+        <v>3.3399417000498234E-2</v>
       </c>
       <c r="J5" s="15">
-        <v>5.0807810714691953E-2</v>
+        <v>5.080602354241269E-2</v>
       </c>
       <c r="K5" s="14">
-        <v>8.0699945232732672E-3</v>
+        <v>8.0745811880826076E-3</v>
       </c>
       <c r="L5" s="15">
-        <v>3.3395643286396007E-2</v>
+        <v>3.3399417000498234E-2</v>
       </c>
       <c r="M5" s="15">
-        <v>5.0807810714691953E-2</v>
+        <v>5.080602354241269E-2</v>
       </c>
       <c r="N5" s="14">
-        <v>6.2773148638999117E-3</v>
+        <v>2.2109766895226008E-3</v>
       </c>
       <c r="O5" s="15">
-        <v>3.3216153035094058E-2</v>
+        <v>1.629398185977218E-2</v>
       </c>
       <c r="P5" s="15">
-        <v>5.0807810714691953E-2</v>
+        <v>2.7495250950826583E-2</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="15"/>
@@ -1607,54 +1656,54 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="14">
-        <v>2.1385539045614263E-3</v>
+        <v>2.1400510819570254E-3</v>
       </c>
       <c r="C6" s="15">
-        <v>2.0406166630846122E-2</v>
+        <v>2.0404362790901673E-2</v>
       </c>
       <c r="D6" s="15">
-        <v>4.9082467938891719E-2</v>
+        <v>4.9055255278758932E-2</v>
       </c>
       <c r="E6" s="14">
-        <v>2.1385539045614263E-3</v>
+        <v>2.1400510819570254E-3</v>
       </c>
       <c r="F6" s="15">
-        <v>2.0406166630846122E-2</v>
+        <v>2.0404362790901673E-2</v>
       </c>
       <c r="G6" s="15">
-        <v>4.9082467938891719E-2</v>
+        <v>4.9055255278758932E-2</v>
       </c>
       <c r="H6" s="14">
-        <v>6.3089570608857622E-3</v>
+        <v>6.307910416767838E-3</v>
       </c>
       <c r="I6" s="15">
-        <v>3.0452692881113973E-2</v>
+        <v>3.0439001022486936E-2</v>
       </c>
       <c r="J6" s="15">
-        <v>5.3971907815515127E-2</v>
+        <v>5.3981245480927448E-2</v>
       </c>
       <c r="K6" s="14">
-        <v>6.3089570608857622E-3</v>
+        <v>6.307910416767838E-3</v>
       </c>
       <c r="L6" s="15">
-        <v>3.0452692881113973E-2</v>
+        <v>3.0439001022486936E-2</v>
       </c>
       <c r="M6" s="15">
-        <v>5.3971907815515127E-2</v>
+        <v>5.3981245480927448E-2</v>
       </c>
       <c r="N6" s="14">
-        <v>5.41278375907547E-3</v>
+        <v>2.1911950505628316E-3</v>
       </c>
       <c r="O6" s="15">
-        <v>3.0608821853751439E-2</v>
+        <v>1.6916280602721375E-2</v>
       </c>
       <c r="P6" s="15">
-        <v>5.3971907815515127E-2</v>
+        <v>4.0674871227342868E-2</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="15"/>
@@ -1666,22 +1715,55 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1.2609555872881945E-6</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.6391451192545838E-6</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2.4751039114775086E-5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.2609555872881945E-6</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6.6391451192545838E-6</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2.4751039114775086E-5</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2.1684066611749663E-6</v>
+      </c>
+      <c r="I7" s="15">
+        <v>1.1390501305779754E-5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.911639392354585E-2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2.1684066611749663E-6</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1.1390501305779754E-5</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1.911639392354585E-2</v>
+      </c>
+      <c r="N7" s="14">
+        <v>4.6500833307231552E-8</v>
+      </c>
+      <c r="O7" s="15">
+        <v>2.8757943826056683E-7</v>
+      </c>
+      <c r="P7" s="15">
+        <v>4.8852248574876071E-7</v>
+      </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
@@ -1692,7 +1774,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1718,7 +1800,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1744,7 +1826,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1770,7 +1852,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1796,7 +1878,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1822,7 +1904,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1869,18 +1951,18 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
-    <col min="2" max="4" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1900,12 +1982,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10">
-        <v>5.420642361677136E-3</v>
+        <v>4.8777444372937878E-3</v>
       </c>
       <c r="C2">
         <v>426</v>
@@ -1920,12 +2002,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10">
-        <v>1.1565403482253779E-2</v>
+        <v>1.0815853169844849E-2</v>
       </c>
       <c r="C3">
         <v>852</v>
@@ -1940,12 +2022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10">
-        <v>0.20807749014095389</v>
+        <v>0.20810046205215704</v>
       </c>
       <c r="C4">
         <v>426</v>
@@ -1960,12 +2042,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10">
-        <v>0.36646059248309831</v>
+        <v>0.36649933201268786</v>
       </c>
       <c r="C5">
         <v>852</v>
@@ -1980,12 +2062,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="10">
-        <v>5.4206423616771568E-3</v>
+        <v>4.8777444372937644E-3</v>
       </c>
       <c r="C6">
         <v>426</v>
@@ -1994,18 +2076,18 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>0.38268899554571539</v>
+        <v>0.31317047098370665</v>
       </c>
       <c r="F6" s="8">
-        <v>0.22184708441220341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.19812485817603456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10">
-        <v>7.6404098323088398E-3</v>
+        <v>7.2722084314463488E-3</v>
       </c>
       <c r="C7">
         <v>852</v>
@@ -2014,74 +2096,89 @@
         <v>23</v>
       </c>
       <c r="E7" s="8">
-        <v>2.2840771222278433</v>
+        <v>2.282088115369139</v>
       </c>
       <c r="F7" s="8">
-        <v>2.081300711780369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.0774036731220922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.5690344591707652E-3</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.14180585410840837</v>
+      </c>
+      <c r="F8" s="8">
+        <v>8.5407365701880067E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
     </row>
   </sheetData>

--- a/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
+++ b/calibration/overall_stats_cal_9_24_premo_rotated_dipole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robma\Documents\Work\ilemt_cal_data\cal_9_24_premo_rotated_dipole\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843F4D8B-4836-4B21-AE2E-714EF43B7CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1DE607-911E-4719-AE24-C4C4F1F38AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24090" windowHeight="11775" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="34560" windowHeight="19140" activeTab="2" xr2:uid="{5D7C67CD-972B-4CBF-BC15-D765573F58E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Error stats" sheetId="1" r:id="rId1"/>
@@ -567,21 +567,21 @@
       <selection activeCell="R1" sqref="R1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="6" max="6" width="8.85546875" style="4"/>
-    <col min="10" max="10" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="18" max="18" width="8.85546875" style="4"/>
-    <col min="22" max="22" width="8.85546875" style="4"/>
-    <col min="25" max="25" width="8.85546875" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="4" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="8.88671875" style="4"/>
+    <col min="18" max="18" width="8.88671875" style="4"/>
+    <col min="22" max="22" width="8.88671875" style="4"/>
+    <col min="25" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="26" width="8.88671875" style="4" customWidth="1"/>
+    <col min="30" max="30" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="AB1" s="17"/>
       <c r="AC1" s="18"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
@@ -682,7 +682,7 @@
       </c>
       <c r="AC2" s="19"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -917,7 +917,7 @@
       <c r="AB5" s="8"/>
       <c r="AC5" s="8"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1132,7 +1132,7 @@
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -1158,7 +1158,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -1184,7 +1184,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -1210,7 +1210,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -1236,7 +1236,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1262,7 +1262,7 @@
       <c r="X13" s="6"/>
       <c r="Y13" s="6"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1288,7 +1288,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1350,20 +1350,20 @@
       <selection activeCell="N1" sqref="N1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="8.85546875" style="4"/>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="11" max="11" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="17" max="17" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
-    <col min="23" max="23" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="8.88671875" style="4"/>
+    <col min="17" max="17" width="8.88671875" style="4"/>
+    <col min="20" max="20" width="8.88671875" style="4"/>
+    <col min="23" max="23" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="X1" s="17"/>
       <c r="Y1" s="17"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1774,7 +1774,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -1800,7 +1800,7 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -1826,7 +1826,7 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
@@ -1852,7 +1852,7 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -1878,7 +1878,7 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -1904,7 +1904,7 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1954,15 +1954,15 @@
       <selection activeCell="B2" sqref="B2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>0.19812485817603456</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2.0774036731220922</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -2122,63 +2122,63 @@
         <v>8.5407365701880067E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" s="9"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="9"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
     </row>
   </sheetData>
